--- a/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>141403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121607</v>
+        <v>119934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165191</v>
+        <v>162664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2047216265943197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1760602191749349</v>
+        <v>0.1736383020726263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.239161524918639</v>
+        <v>0.2355027246557616</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -762,19 +762,19 @@
         <v>123909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108331</v>
+        <v>107219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141970</v>
+        <v>141328</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1687723707253771</v>
+        <v>0.168772370725377</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1475543262368935</v>
+        <v>0.1460391726683723</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1933718254153338</v>
+        <v>0.1924973084865816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>338</v>
@@ -783,19 +783,19 @@
         <v>265312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237731</v>
+        <v>240593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292837</v>
+        <v>296241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1861986322242513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1668414417621278</v>
+        <v>0.1688505913126668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.205515542906246</v>
+        <v>0.2079046387278189</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>84857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68530</v>
+        <v>69976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103633</v>
+        <v>103464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1228550652329555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09921624604580881</v>
+        <v>0.101310141006985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1500382953422527</v>
+        <v>0.1497940381774346</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -833,19 +833,19 @@
         <v>83256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69053</v>
+        <v>71107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98953</v>
+        <v>97392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1133995918030862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09405450014317016</v>
+        <v>0.09685244636395487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1347807219982051</v>
+        <v>0.1326541521886056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>236</v>
@@ -854,19 +854,19 @@
         <v>168113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146401</v>
+        <v>145081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193146</v>
+        <v>189943</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1179830956504332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1027453804823533</v>
+        <v>0.1018189896085552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1355517072082005</v>
+        <v>0.1333036349035498</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>68650</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54704</v>
+        <v>52175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88977</v>
+        <v>89373</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09938977969851696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07919975909624102</v>
+        <v>0.0755378422905562</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1288191879697248</v>
+        <v>0.1293932611312354</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -904,19 +904,19 @@
         <v>81966</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68901</v>
+        <v>67517</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96911</v>
+        <v>97163</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1116428534863073</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09384693188140726</v>
+        <v>0.09196233281927986</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1319993960527444</v>
+        <v>0.1323423424446406</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>202</v>
@@ -925,19 +925,19 @@
         <v>150615</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>129694</v>
+        <v>129827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>174768</v>
+        <v>174666</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1057032237824417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09102061075078981</v>
+        <v>0.09111382025239415</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1226540275900996</v>
+        <v>0.1225823581136047</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>395800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>369515</v>
+        <v>367043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>423539</v>
+        <v>424128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5730335284742079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5349783455512848</v>
+        <v>0.5313989955602246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.613193679742963</v>
+        <v>0.6140469225078218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>777</v>
@@ -975,19 +975,19 @@
         <v>445049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>421637</v>
+        <v>424960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>466596</v>
+        <v>468697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6061851839852294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5742963802916273</v>
+        <v>0.5788232680390212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6355330090648144</v>
+        <v>0.6383957908535648</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1195</v>
@@ -996,19 +996,19 @@
         <v>840848</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>805014</v>
+        <v>805815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>876697</v>
+        <v>875954</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5901150483428739</v>
+        <v>0.5901150483428738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.56496605559104</v>
+        <v>0.5655285127521948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6152736475955165</v>
+        <v>0.6147523861656936</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>280594</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>251077</v>
+        <v>251376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>312326</v>
+        <v>316289</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2675082210626133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2393674139047985</v>
+        <v>0.2396528941260125</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2977604912297606</v>
+        <v>0.301538173451043</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>390</v>
@@ -1121,19 +1121,19 @@
         <v>286634</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>262398</v>
+        <v>260711</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>315527</v>
+        <v>314355</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2679326010000748</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2452785343094223</v>
+        <v>0.2437008281818577</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2949406791804118</v>
+        <v>0.2938452518323051</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>663</v>
@@ -1142,19 +1142,19 @@
         <v>567228</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>528048</v>
+        <v>530058</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>605054</v>
+        <v>608389</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2677225022418889</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2492302135441265</v>
+        <v>0.2501790144334546</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2855761560978887</v>
+        <v>0.2871501365349261</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>137719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114399</v>
+        <v>114951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163515</v>
+        <v>162811</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1312960830680068</v>
+        <v>0.1312960830680069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1090642694025308</v>
+        <v>0.1095899975843855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1558895365372899</v>
+        <v>0.1552177777807671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1192,19 +1192,19 @@
         <v>144440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125350</v>
+        <v>124995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165169</v>
+        <v>166059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1350163777785069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1171719970521157</v>
+        <v>0.116839715529026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1543925972246517</v>
+        <v>0.1552241964044557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>324</v>
@@ -1213,19 +1213,19 @@
         <v>282159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251969</v>
+        <v>249961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312683</v>
+        <v>316025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1331745628627569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1189256219246039</v>
+        <v>0.1179777681867054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1475812084153299</v>
+        <v>0.1491586655855201</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>178137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150924</v>
+        <v>149887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212419</v>
+        <v>210764</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.169829467873394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1438860066358763</v>
+        <v>0.1428966319107279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2025126852532214</v>
+        <v>0.2009344554273939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>231</v>
@@ -1263,19 +1263,19 @@
         <v>171510</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151786</v>
+        <v>151306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>193279</v>
+        <v>193498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1603197866585363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1418824621811655</v>
+        <v>0.1414338346741559</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1806684090348129</v>
+        <v>0.1808731553024891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>373</v>
@@ -1284,19 +1284,19 @@
         <v>349647</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>319619</v>
+        <v>314627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394941</v>
+        <v>385754</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1650277665548921</v>
+        <v>0.165027766554892</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1508552427647325</v>
+        <v>0.1484990461249359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1864060293687253</v>
+        <v>0.1820698139007748</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>452467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>415691</v>
+        <v>410775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>488956</v>
+        <v>487311</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4313662279959859</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3963046359218327</v>
+        <v>0.3916177660331853</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4661530726270926</v>
+        <v>0.4645852158233124</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>699</v>
@@ -1334,19 +1334,19 @@
         <v>467214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>441169</v>
+        <v>435580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>499256</v>
+        <v>493690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4367312345628819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4123849602390653</v>
+        <v>0.4071609902093668</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4666821954610684</v>
+        <v>0.4614791803324888</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1119</v>
@@ -1355,19 +1355,19 @@
         <v>919682</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>876077</v>
+        <v>872603</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>969378</v>
+        <v>968567</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4340751683404623</v>
+        <v>0.4340751683404622</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4134945307971844</v>
+        <v>0.4118550125750975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4575309514394311</v>
+        <v>0.4571483783722947</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>120062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98455</v>
+        <v>100149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141646</v>
+        <v>143007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1497233386113229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1227779305714203</v>
+        <v>0.124890557730956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1766395738341446</v>
+        <v>0.178336064341537</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1480,19 +1480,19 @@
         <v>118986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102172</v>
+        <v>98934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139739</v>
+        <v>136054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1466156291744354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1258968194056194</v>
+        <v>0.1219077451924801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.172187460169612</v>
+        <v>0.1676463869977051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>267</v>
@@ -1501,19 +1501,19 @@
         <v>239049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212233</v>
+        <v>212763</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267309</v>
+        <v>270238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.148160183841307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1315399221381921</v>
+        <v>0.1318683655122028</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1656756811091117</v>
+        <v>0.1674913564671376</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>107858</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88102</v>
+        <v>88694</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129362</v>
+        <v>129236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1345034781889583</v>
+        <v>0.1345034781889582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1098676915211127</v>
+        <v>0.1106055152368838</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1613198111333444</v>
+        <v>0.161163005253227</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>171</v>
@@ -1551,19 +1551,19 @@
         <v>119705</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>103153</v>
+        <v>102198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>138069</v>
+        <v>137401</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.147501198501035</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1271060988179096</v>
+        <v>0.1259285565988352</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1701291984064598</v>
+        <v>0.1693063203561728</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>272</v>
@@ -1572,19 +1572,19 @@
         <v>227563</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>201670</v>
+        <v>201855</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>254180</v>
+        <v>256980</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1410412349895116</v>
+        <v>0.1410412349895117</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1249930999170976</v>
+        <v>0.1251081226319303</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1575387881569957</v>
+        <v>0.1592738744358538</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>232339</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>204754</v>
+        <v>204599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265445</v>
+        <v>264002</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2897370437431026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2553378938715915</v>
+        <v>0.2551446833966837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3310216471398678</v>
+        <v>0.3292228017120373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -1622,19 +1622,19 @@
         <v>210023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>187111</v>
+        <v>186468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>236071</v>
+        <v>234445</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2587916061360099</v>
+        <v>0.2587916061360098</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2305592098859035</v>
+        <v>0.2297668748530045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2908877680685151</v>
+        <v>0.2888846537597872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>445</v>
@@ -1643,19 +1643,19 @@
         <v>442362</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>405737</v>
+        <v>403762</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>484352</v>
+        <v>480331</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2741717184164841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2514721766491064</v>
+        <v>0.2502479495051191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3001970216359426</v>
+        <v>0.297705090961054</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>341636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309399</v>
+        <v>312469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>374233</v>
+        <v>377418</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4260361394566163</v>
+        <v>0.4260361394566162</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3858350658462689</v>
+        <v>0.3896636971453694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4666853750675565</v>
+        <v>0.4706579295495356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>465</v>
@@ -1693,19 +1693,19 @@
         <v>362838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>335205</v>
+        <v>336787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>389355</v>
+        <v>388790</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4470915661885198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4130421724051617</v>
+        <v>0.4149912272948842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4797663180839131</v>
+        <v>0.4790703326552997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>737</v>
@@ -1714,19 +1714,19 @@
         <v>704474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>658331</v>
+        <v>662587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>742547</v>
+        <v>747504</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4366268627526972</v>
+        <v>0.4366268627526973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4080276627477791</v>
+        <v>0.4106656526225101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4602237400657315</v>
+        <v>0.4632965588506178</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>348834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>319513</v>
+        <v>319118</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>382507</v>
+        <v>379412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3532707037212031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3235772677788298</v>
+        <v>0.3231773659152397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.387371998382624</v>
+        <v>0.3842385267466372</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>511</v>
@@ -1839,19 +1839,19 @@
         <v>382279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>353545</v>
+        <v>356287</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>415119</v>
+        <v>411074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3421390784914267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3164223905781182</v>
+        <v>0.3188763367134152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3715305656498936</v>
+        <v>0.3679106040312797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>865</v>
@@ -1860,19 +1860,19 @@
         <v>731112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>691209</v>
+        <v>688864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>778353</v>
+        <v>773918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.347361438559088</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3284026709588745</v>
+        <v>0.3272888163620691</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3698061130791672</v>
+        <v>0.3676988328999523</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>137260</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115110</v>
+        <v>115111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164062</v>
+        <v>164447</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1390059170958617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.116574356968659</v>
+        <v>0.1165749589281262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1661484398680061</v>
+        <v>0.166538531872942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -1910,19 +1910,19 @@
         <v>181223</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160055</v>
+        <v>157717</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205430</v>
+        <v>203741</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.16219456186394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1432487567025846</v>
+        <v>0.141156660494212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1838595977076159</v>
+        <v>0.1823479052952616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>387</v>
@@ -1931,19 +1931,19 @@
         <v>318483</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>288393</v>
+        <v>287716</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353411</v>
+        <v>354754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1513156964727426</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1370194031431172</v>
+        <v>0.1366976170338487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1679103191396387</v>
+        <v>0.1685486278345624</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>123360</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103354</v>
+        <v>102149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>147888</v>
+        <v>147534</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1249295125791479</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1046684390424177</v>
+        <v>0.1034480217213039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1497694156970126</v>
+        <v>0.1494103839235926</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>202</v>
@@ -1981,19 +1981,19 @@
         <v>150543</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>130843</v>
+        <v>131494</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>169958</v>
+        <v>172328</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.134735391882964</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1171040436490105</v>
+        <v>0.1176873840394101</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1521125253506581</v>
+        <v>0.1542329863592936</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>332</v>
@@ -2002,19 +2002,19 @@
         <v>273903</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>246458</v>
+        <v>244596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>304851</v>
+        <v>305418</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1301350005252337</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1170954716696696</v>
+        <v>0.1162108677905618</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1448388976661645</v>
+        <v>0.1451082701324422</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>377986</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>343849</v>
+        <v>345386</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>410062</v>
+        <v>411636</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3827938666037872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3482228347171891</v>
+        <v>0.3497790996682432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.41527833445117</v>
+        <v>0.4168720862273922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>594</v>
@@ -2052,19 +2052,19 @@
         <v>403275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>374521</v>
+        <v>374450</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>432688</v>
+        <v>433587</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3609309677616692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3351958973333991</v>
+        <v>0.3351318433392027</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3872548059996617</v>
+        <v>0.3880595736286371</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>980</v>
@@ -2073,19 +2073,19 @@
         <v>781261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>737424</v>
+        <v>732906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>824923</v>
+        <v>823175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3711878644429356</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3503601542468249</v>
+        <v>0.3482135922739256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3919322675203112</v>
+        <v>0.3911016581114908</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>890893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>834264</v>
+        <v>842170</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>947701</v>
+        <v>951565</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2524519287648449</v>
+        <v>0.2524519287648448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2364050562191417</v>
+        <v>0.2386453207572414</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2685494188041386</v>
+        <v>0.2696443692780311</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1240</v>
@@ -2198,19 +2198,19 @@
         <v>911808</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>865300</v>
+        <v>867654</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>959600</v>
+        <v>962287</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2442659416766128</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2318067546103068</v>
+        <v>0.2324375740690781</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2570691886406873</v>
+        <v>0.2577888191517282</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2133</v>
@@ -2219,19 +2219,19 @@
         <v>1802701</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1725736</v>
+        <v>1733454</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1872521</v>
+        <v>1876820</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2482440177303333</v>
+        <v>0.2482440177303332</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2376453346690838</v>
+        <v>0.2387081819062324</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2578586279814913</v>
+        <v>0.2584506664944065</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>467694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>426376</v>
+        <v>428180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>510181</v>
+        <v>508393</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.132530072912581</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1208220565085242</v>
+        <v>0.1213331631691899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1445698163477051</v>
+        <v>0.1440631253279197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>762</v>
@@ -2269,19 +2269,19 @@
         <v>528624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>494132</v>
+        <v>492486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>568321</v>
+        <v>565778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1416140711641379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1323739414884791</v>
+        <v>0.1319329815932082</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1522484657586125</v>
+        <v>0.1515672151654714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1219</v>
@@ -2290,19 +2290,19 @@
         <v>996318</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>938482</v>
+        <v>945062</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1056143</v>
+        <v>1059072</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.137199596095089</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.129235261145695</v>
+        <v>0.1301413055284129</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1454379094486294</v>
+        <v>0.1458412178789027</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>602486</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>549134</v>
+        <v>552259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>655717</v>
+        <v>654783</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1707260203799952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1556078744247161</v>
+        <v>0.1564933537975193</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1858101017788956</v>
+        <v>0.185545388811324</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>825</v>
@@ -2340,19 +2340,19 @@
         <v>614041</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>569828</v>
+        <v>569302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>656919</v>
+        <v>655790</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1644965975451844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1526524206175233</v>
+        <v>0.1525112683436124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1759832839369472</v>
+        <v>0.1756807612401255</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1352</v>
@@ -2361,19 +2361,19 @@
         <v>1216527</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1152166</v>
+        <v>1145698</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1283426</v>
+        <v>1278633</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1675238583434924</v>
+        <v>0.1675238583434923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.158660883509101</v>
+        <v>0.1577702516031705</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1767362656025211</v>
+        <v>0.1760763259713529</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1567890</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1503782</v>
+        <v>1505727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1631848</v>
+        <v>1633908</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.444291977942579</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4261258230192241</v>
+        <v>0.4266771235669607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4624159077385864</v>
+        <v>0.4629996695047525</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2535</v>
@@ -2411,19 +2411,19 @@
         <v>1678376</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1628932</v>
+        <v>1625702</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1736654</v>
+        <v>1728695</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4496233896140648</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4363778061196437</v>
+        <v>0.435512454245429</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4652355510301278</v>
+        <v>0.4631034041934046</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4031</v>
@@ -2432,19 +2432,19 @@
         <v>3246266</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3157811</v>
+        <v>3155387</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3328089</v>
+        <v>3324172</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4470325278310854</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4348516754782791</v>
+        <v>0.434517893360175</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4583000369297314</v>
+        <v>0.4577606720341669</v>
       </c>
     </row>
     <row r="28">
